--- a/biology/Botanique/Liste_des_espèces_végétales_protégées_à_La_Réunion/Liste_des_espèces_végétales_protégées_à_La_Réunion.xlsx
+++ b/biology/Botanique/Liste_des_espèces_végétales_protégées_à_La_Réunion/Liste_des_espèces_végétales_protégées_à_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_%C3%A0_La_R%C3%A9union</t>
+          <t>Liste_des_espèces_végétales_protégées_à_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des espèces végétales protégées à La Réunion est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire du Département d'outre-mer de La Réunion. Elle a été publiée dans un arrêté du 6 février 1987[1].
-Les noms de cette liste ont été mis à jour à l'aide de la base de données des trachéophytes de la Réunion de Tela Botanica[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces végétales protégées à La Réunion est une liste officielle définie par le gouvernement français, recensant les espèces végétales qui sont protégées sur le territoire du Département d'outre-mer de La Réunion. Elle a été publiée dans un arrêté du 6 février 1987.
+Les noms de cette liste ont été mis à jour à l'aide de la base de données des trachéophytes de la Réunion de Tela Botanica.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_%C3%A0_La_R%C3%A9union</t>
+          <t>Liste_des_espèces_végétales_protégées_à_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Ptéridophytes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Angiopteris madagascariensis de Vriese
 Asplenium nidus L.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_%C3%A0_La_R%C3%A9union</t>
+          <t>Liste_des_espèces_végétales_protégées_à_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monocotylédones
+          <t>Monocotylédones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aloe macra Haw., synonyme de Lomatophyllum macrum (Haw.) Salm-Dyck, Mazambron marron.
 Angraecum palmiforme Thouars
 Angraecum eburneum Bory, Petite comète.
@@ -555,7 +575,43 @@
 Cryptopus elatus (Thouars) Lindl., Gros faham.
 Graphorkis concolor var. alphabetica F.N.Rasm., synonyme d’Eulophia scripta auct. non (L.) Lindl, Corne de bouc.
 Phaius pulchellus Kraenzl.
-Dicotylédones
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_végétales_protégées_à_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_v%C3%A9g%C3%A9tales_prot%C3%A9g%C3%A9es_%C3%A0_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dicotylédones</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Badula borbonica var. macrophylla (Cordem.) Coode, Bois de savon.
 Badula fragilis Bosser &amp; Coode
 Berenice arguta Tul.
